--- a/Final Report/Tables/Table 3.10 Recruitment SSB Bio Comparisons with last year.xlsx
+++ b/Final Report/Tables/Table 3.10 Recruitment SSB Bio Comparisons with last year.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440F5ECB-9564-4873-A707-4CADF27D476B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304FD1C1-B7D9-4199-829E-21BE0751090B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="15">
   <si>
     <t>Year</t>
   </si>
@@ -48,6 +48,24 @@
   <si>
     <t>NA</t>
   </si>
+  <si>
+    <t>B100</t>
+  </si>
+  <si>
+    <t>%B100 2023</t>
+  </si>
+  <si>
+    <t>proj ssb 2025</t>
+  </si>
+  <si>
+    <t>projected 2024 ssb</t>
+  </si>
+  <si>
+    <t>%B100 2024</t>
+  </si>
+  <si>
+    <t>proj ssb 2026</t>
+  </si>
 </sst>
 </file>
 
@@ -57,7 +75,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +103,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -99,8 +123,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8D8D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -128,12 +158,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -143,9 +182,6 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -159,6 +195,20 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -441,41 +491,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:P68"/>
+  <dimension ref="D2:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4:O68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="J80" sqref="J80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:16" x14ac:dyDescent="0.2">
       <c r="D2" s="3"/>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="4:16" ht="21" x14ac:dyDescent="0.2">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="4:16" ht="20.399999999999999" x14ac:dyDescent="0.2">
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,13 +597,13 @@
       <c r="M4" s="5">
         <v>0.73</v>
       </c>
-      <c r="N4" s="8">
+      <c r="N4" s="7">
         <v>6.4999999999999997E-3</v>
       </c>
-      <c r="O4" s="8">
+      <c r="O4" s="7">
         <v>6.4000000000000003E-3</v>
       </c>
-      <c r="P4" s="9">
+      <c r="P4" s="8">
         <v>-2.0699999999999998</v>
       </c>
     </row>
@@ -588,13 +638,13 @@
       <c r="M5" s="5">
         <v>0.7</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="7">
         <v>3.4299999999999997E-2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="7">
         <v>3.3599999999999998E-2</v>
       </c>
-      <c r="P5" s="9">
+      <c r="P5" s="8">
         <v>-2.0699999999999998</v>
       </c>
     </row>
@@ -629,13 +679,13 @@
       <c r="M6" s="5">
         <v>0.7</v>
       </c>
-      <c r="N6" s="8">
+      <c r="N6" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="O6" s="8">
+      <c r="O6" s="7">
         <v>5.6800000000000003E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="8">
         <v>-2.08</v>
       </c>
     </row>
@@ -670,13 +720,13 @@
       <c r="M7" s="5">
         <v>0.74</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="7">
         <v>3.7699999999999997E-2</v>
       </c>
-      <c r="O7" s="8">
+      <c r="O7" s="7">
         <v>3.7199999999999997E-2</v>
       </c>
-      <c r="P7" s="9">
+      <c r="P7" s="8">
         <v>-1.36</v>
       </c>
     </row>
@@ -711,13 +761,13 @@
       <c r="M8" s="5">
         <v>0.8</v>
       </c>
-      <c r="N8" s="8">
+      <c r="N8" s="7">
         <v>1.61E-2</v>
       </c>
-      <c r="O8" s="8">
+      <c r="O8" s="7">
         <v>1.5900000000000001E-2</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="8">
         <v>-1.08</v>
       </c>
     </row>
@@ -752,13 +802,13 @@
       <c r="M9" s="5">
         <v>0.85</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="7">
         <v>1.84E-2</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="7">
         <v>1.83E-2</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="8">
         <v>-0.51</v>
       </c>
     </row>
@@ -793,13 +843,13 @@
       <c r="M10" s="5">
         <v>0.91</v>
       </c>
-      <c r="N10" s="8">
+      <c r="N10" s="7">
         <v>3.2599999999999997E-2</v>
       </c>
-      <c r="O10" s="8">
+      <c r="O10" s="7">
         <v>3.2300000000000002E-2</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="8">
         <v>-0.87</v>
       </c>
     </row>
@@ -834,13 +884,13 @@
       <c r="M11" s="5">
         <v>0.98</v>
       </c>
-      <c r="N11" s="8">
+      <c r="N11" s="7">
         <v>3.9699999999999999E-2</v>
       </c>
-      <c r="O11" s="8">
+      <c r="O11" s="7">
         <v>3.9300000000000002E-2</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="8">
         <v>-0.89</v>
       </c>
     </row>
@@ -875,13 +925,13 @@
       <c r="M12" s="5">
         <v>1.03</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>6.54E-2</v>
       </c>
-      <c r="O12" s="8">
+      <c r="O12" s="7">
         <v>6.4600000000000005E-2</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="8">
         <v>-1.27</v>
       </c>
     </row>
@@ -916,13 +966,13 @@
       <c r="M13" s="5">
         <v>1.08</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="7">
         <v>8.0299999999999996E-2</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="7">
         <v>7.9100000000000004E-2</v>
       </c>
-      <c r="P13" s="9">
+      <c r="P13" s="8">
         <v>-1.46</v>
       </c>
     </row>
@@ -957,13 +1007,13 @@
       <c r="M14" s="5">
         <v>1.1399999999999999</v>
       </c>
-      <c r="N14" s="8">
+      <c r="N14" s="7">
         <v>8.7300000000000003E-2</v>
       </c>
-      <c r="O14" s="8">
+      <c r="O14" s="7">
         <v>8.5699999999999998E-2</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="8">
         <v>-1.92</v>
       </c>
     </row>
@@ -998,13 +1048,13 @@
       <c r="M15" s="5">
         <v>1.2</v>
       </c>
-      <c r="N15" s="8">
+      <c r="N15" s="7">
         <v>0.10580000000000001</v>
       </c>
-      <c r="O15" s="8">
+      <c r="O15" s="7">
         <v>0.10390000000000001</v>
       </c>
-      <c r="P15" s="9">
+      <c r="P15" s="8">
         <v>-1.85</v>
       </c>
     </row>
@@ -1039,13 +1089,13 @@
       <c r="M16" s="5">
         <v>1.24</v>
       </c>
-      <c r="N16" s="8">
+      <c r="N16" s="7">
         <v>0.13980000000000001</v>
       </c>
-      <c r="O16" s="8">
+      <c r="O16" s="7">
         <v>0.1371</v>
       </c>
-      <c r="P16" s="9">
+      <c r="P16" s="8">
         <v>-1.96</v>
       </c>
     </row>
@@ -1080,13 +1130,13 @@
       <c r="M17" s="5">
         <v>1.31</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>0.1066</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="7">
         <v>0.1042</v>
       </c>
-      <c r="P17" s="9">
+      <c r="P17" s="8">
         <v>-2.25</v>
       </c>
     </row>
@@ -1121,13 +1171,13 @@
       <c r="M18" s="5">
         <v>1.35</v>
       </c>
-      <c r="N18" s="8">
+      <c r="N18" s="7">
         <v>0.1085</v>
       </c>
-      <c r="O18" s="8">
+      <c r="O18" s="7">
         <v>0.10580000000000001</v>
       </c>
-      <c r="P18" s="9">
+      <c r="P18" s="8">
         <v>-2.58</v>
       </c>
     </row>
@@ -1162,13 +1212,13 @@
       <c r="M19" s="5">
         <v>1.28</v>
       </c>
-      <c r="N19" s="8">
+      <c r="N19" s="7">
         <v>0.1017</v>
       </c>
-      <c r="O19" s="8">
+      <c r="O19" s="7">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="P19" s="9">
+      <c r="P19" s="8">
         <v>-2.72</v>
       </c>
     </row>
@@ -1203,13 +1253,13 @@
       <c r="M20" s="5">
         <v>1.18</v>
       </c>
-      <c r="N20" s="8">
+      <c r="N20" s="7">
         <v>0.1178</v>
       </c>
-      <c r="O20" s="8">
+      <c r="O20" s="7">
         <v>0.11459999999999999</v>
       </c>
-      <c r="P20" s="9">
+      <c r="P20" s="8">
         <v>-2.81</v>
       </c>
     </row>
@@ -1244,13 +1294,13 @@
       <c r="M21" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="7">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="7">
         <v>8.3500000000000005E-2</v>
       </c>
-      <c r="P21" s="9">
+      <c r="P21" s="8">
         <v>-3</v>
       </c>
     </row>
@@ -1285,13 +1335,13 @@
       <c r="M22" s="5">
         <v>1.04</v>
       </c>
-      <c r="N22" s="8">
+      <c r="N22" s="7">
         <v>4.3200000000000002E-2</v>
       </c>
-      <c r="O22" s="8">
+      <c r="O22" s="7">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="P22" s="9">
+      <c r="P22" s="8">
         <v>-2.82</v>
       </c>
     </row>
@@ -1326,13 +1376,13 @@
       <c r="M23" s="5">
         <v>0.47</v>
       </c>
-      <c r="N23" s="8">
+      <c r="N23" s="7">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="O23" s="8">
+      <c r="O23" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P23" s="9">
+      <c r="P23" s="8">
         <v>-2.39</v>
       </c>
     </row>
@@ -1367,13 +1417,13 @@
       <c r="M24" s="5">
         <v>1.19</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <v>4.1599999999999998E-2</v>
       </c>
-      <c r="O24" s="8">
+      <c r="O24" s="7">
         <v>4.07E-2</v>
       </c>
-      <c r="P24" s="9">
+      <c r="P24" s="8">
         <v>-2.1800000000000002</v>
       </c>
     </row>
@@ -1408,13 +1458,13 @@
       <c r="M25" s="5">
         <v>1.99</v>
       </c>
-      <c r="N25" s="8">
+      <c r="N25" s="7">
         <v>4.9200000000000001E-2</v>
       </c>
-      <c r="O25" s="8">
+      <c r="O25" s="7">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="P25" s="9">
+      <c r="P25" s="8">
         <v>-2.4700000000000002</v>
       </c>
     </row>
@@ -1449,13 +1499,13 @@
       <c r="M26" s="5">
         <v>0.92</v>
       </c>
-      <c r="N26" s="8">
+      <c r="N26" s="7">
         <v>4.3900000000000002E-2</v>
       </c>
-      <c r="O26" s="8">
+      <c r="O26" s="7">
         <v>4.2799999999999998E-2</v>
       </c>
-      <c r="P26" s="9">
+      <c r="P26" s="8">
         <v>-2.41</v>
       </c>
     </row>
@@ -1490,13 +1540,13 @@
       <c r="M27" s="5">
         <v>1.31</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="7">
         <v>3.9800000000000002E-2</v>
       </c>
-      <c r="O27" s="8">
+      <c r="O27" s="7">
         <v>3.8699999999999998E-2</v>
       </c>
-      <c r="P27" s="9">
+      <c r="P27" s="8">
         <v>-2.82</v>
       </c>
     </row>
@@ -1531,13 +1581,13 @@
       <c r="M28" s="5">
         <v>1.2</v>
       </c>
-      <c r="N28" s="8">
+      <c r="N28" s="7">
         <v>4.2500000000000003E-2</v>
       </c>
-      <c r="O28" s="8">
+      <c r="O28" s="7">
         <v>4.1300000000000003E-2</v>
       </c>
-      <c r="P28" s="9">
+      <c r="P28" s="8">
         <v>-3</v>
       </c>
     </row>
@@ -1572,13 +1622,13 @@
       <c r="M29" s="5">
         <v>1.01</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="7">
         <v>4.3499999999999997E-2</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="7">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="P29" s="9">
+      <c r="P29" s="8">
         <v>-3.48</v>
       </c>
     </row>
@@ -1613,13 +1663,13 @@
       <c r="M30" s="5">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="7">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="7">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="P30" s="9">
+      <c r="P30" s="8">
         <v>-3.24</v>
       </c>
     </row>
@@ -1654,13 +1704,13 @@
       <c r="M31" s="5">
         <v>1.07</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="7">
         <v>9.7100000000000006E-2</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="7">
         <v>9.4100000000000003E-2</v>
       </c>
-      <c r="P31" s="9">
+      <c r="P31" s="8">
         <v>-3.27</v>
       </c>
     </row>
@@ -1695,13 +1745,13 @@
       <c r="M32" s="5">
         <v>0.94</v>
       </c>
-      <c r="N32" s="8">
+      <c r="N32" s="7">
         <v>0.1108</v>
       </c>
-      <c r="O32" s="8">
+      <c r="O32" s="7">
         <v>0.1076</v>
       </c>
-      <c r="P32" s="9">
+      <c r="P32" s="8">
         <v>-3.05</v>
       </c>
     </row>
@@ -1736,13 +1786,13 @@
       <c r="M33" s="5">
         <v>0.71</v>
       </c>
-      <c r="N33" s="8">
+      <c r="N33" s="7">
         <v>0.1096</v>
       </c>
-      <c r="O33" s="8">
+      <c r="O33" s="7">
         <v>0.1065</v>
       </c>
-      <c r="P33" s="9">
+      <c r="P33" s="8">
         <v>-2.9</v>
       </c>
     </row>
@@ -1777,13 +1827,13 @@
       <c r="M34" s="5">
         <v>0.72</v>
       </c>
-      <c r="N34" s="8">
+      <c r="N34" s="7">
         <v>0.1023</v>
       </c>
-      <c r="O34" s="8">
+      <c r="O34" s="7">
         <v>9.9500000000000005E-2</v>
       </c>
-      <c r="P34" s="9">
+      <c r="P34" s="8">
         <v>-2.77</v>
       </c>
     </row>
@@ -1818,13 +1868,13 @@
       <c r="M35" s="5">
         <v>0.84</v>
       </c>
-      <c r="N35" s="8">
+      <c r="N35" s="7">
         <v>9.3299999999999994E-2</v>
       </c>
-      <c r="O35" s="8">
+      <c r="O35" s="7">
         <v>9.0999999999999998E-2</v>
       </c>
-      <c r="P35" s="9">
+      <c r="P35" s="8">
         <v>-2.5</v>
       </c>
     </row>
@@ -1859,13 +1909,13 @@
       <c r="M36" s="5">
         <v>0.68</v>
       </c>
-      <c r="N36" s="8">
+      <c r="N36" s="7">
         <v>8.8599999999999998E-2</v>
       </c>
-      <c r="O36" s="8">
+      <c r="O36" s="7">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="P36" s="9">
+      <c r="P36" s="8">
         <v>-2.09</v>
       </c>
     </row>
@@ -1900,13 +1950,13 @@
       <c r="M37" s="5">
         <v>0.91</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="7">
         <v>9.8599999999999993E-2</v>
       </c>
-      <c r="O37" s="8">
+      <c r="O37" s="7">
         <v>9.69E-2</v>
       </c>
-      <c r="P37" s="9">
+      <c r="P37" s="8">
         <v>-1.84</v>
       </c>
     </row>
@@ -1941,13 +1991,13 @@
       <c r="M38" s="5">
         <v>0.92</v>
       </c>
-      <c r="N38" s="8">
+      <c r="N38" s="7">
         <v>9.8799999999999999E-2</v>
       </c>
-      <c r="O38" s="8">
+      <c r="O38" s="7">
         <v>9.7199999999999995E-2</v>
       </c>
-      <c r="P38" s="9">
+      <c r="P38" s="8">
         <v>-1.68</v>
       </c>
     </row>
@@ -1982,13 +2032,13 @@
       <c r="M39" s="5">
         <v>0.98</v>
       </c>
-      <c r="N39" s="8">
+      <c r="N39" s="7">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="O39" s="8">
+      <c r="O39" s="7">
         <v>8.2699999999999996E-2</v>
       </c>
-      <c r="P39" s="9">
+      <c r="P39" s="8">
         <v>-0.44</v>
       </c>
     </row>
@@ -2023,13 +2073,13 @@
       <c r="M40" s="5">
         <v>1.0900000000000001</v>
       </c>
-      <c r="N40" s="8">
+      <c r="N40" s="7">
         <v>7.4700000000000003E-2</v>
       </c>
-      <c r="O40" s="8">
+      <c r="O40" s="7">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="P40" s="9">
+      <c r="P40" s="8">
         <v>-0.66</v>
       </c>
     </row>
@@ -2064,13 +2114,13 @@
       <c r="M41" s="5">
         <v>1.2</v>
       </c>
-      <c r="N41" s="8">
+      <c r="N41" s="7">
         <v>6.7299999999999999E-2</v>
       </c>
-      <c r="O41" s="8">
+      <c r="O41" s="7">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="P41" s="9">
+      <c r="P41" s="8">
         <v>-0.85</v>
       </c>
     </row>
@@ -2105,13 +2155,13 @@
       <c r="M42" s="5">
         <v>0.97</v>
       </c>
-      <c r="N42" s="8">
+      <c r="N42" s="7">
         <v>6.83E-2</v>
       </c>
-      <c r="O42" s="8">
+      <c r="O42" s="7">
         <v>6.7599999999999993E-2</v>
       </c>
-      <c r="P42" s="9">
+      <c r="P42" s="8">
         <v>-1.02</v>
       </c>
     </row>
@@ -2146,13 +2196,13 @@
       <c r="M43" s="5">
         <v>1.06</v>
       </c>
-      <c r="N43" s="8">
+      <c r="N43" s="7">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="O43" s="8">
+      <c r="O43" s="7">
         <v>6.9599999999999995E-2</v>
       </c>
-      <c r="P43" s="9">
+      <c r="P43" s="8">
         <v>-1.26</v>
       </c>
     </row>
@@ -2187,13 +2237,13 @@
       <c r="M44" s="5">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N44" s="8">
+      <c r="N44" s="7">
         <v>8.2900000000000001E-2</v>
       </c>
-      <c r="O44" s="8">
+      <c r="O44" s="7">
         <v>8.1699999999999995E-2</v>
       </c>
-      <c r="P44" s="9">
+      <c r="P44" s="8">
         <v>-1.44</v>
       </c>
     </row>
@@ -2228,13 +2278,13 @@
       <c r="M45" s="5">
         <v>0.92</v>
       </c>
-      <c r="N45" s="8">
+      <c r="N45" s="7">
         <v>7.5700000000000003E-2</v>
       </c>
-      <c r="O45" s="8">
+      <c r="O45" s="7">
         <v>7.46E-2</v>
       </c>
-      <c r="P45" s="9">
+      <c r="P45" s="8">
         <v>-1.43</v>
       </c>
     </row>
@@ -2269,13 +2319,13 @@
       <c r="M46" s="5">
         <v>1.07</v>
       </c>
-      <c r="N46" s="8">
+      <c r="N46" s="7">
         <v>7.7299999999999994E-2</v>
       </c>
-      <c r="O46" s="8">
+      <c r="O46" s="7">
         <v>7.6100000000000001E-2</v>
       </c>
-      <c r="P46" s="9">
+      <c r="P46" s="8">
         <v>-1.51</v>
       </c>
     </row>
@@ -2310,13 +2360,13 @@
       <c r="M47" s="5">
         <v>1.01</v>
       </c>
-      <c r="N47" s="8">
+      <c r="N47" s="7">
         <v>8.3599999999999994E-2</v>
       </c>
-      <c r="O47" s="8">
+      <c r="O47" s="7">
         <v>8.2400000000000001E-2</v>
       </c>
-      <c r="P47" s="9">
+      <c r="P47" s="8">
         <v>-1.49</v>
       </c>
     </row>
@@ -2351,13 +2401,13 @@
       <c r="M48" s="5">
         <v>0.96</v>
       </c>
-      <c r="N48" s="8">
+      <c r="N48" s="7">
         <v>8.6499999999999994E-2</v>
       </c>
-      <c r="O48" s="8">
+      <c r="O48" s="7">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="P48" s="9">
+      <c r="P48" s="8">
         <v>-1.48</v>
       </c>
     </row>
@@ -2392,13 +2442,13 @@
       <c r="M49" s="5">
         <v>0.99</v>
       </c>
-      <c r="N49" s="8">
+      <c r="N49" s="7">
         <v>7.8600000000000003E-2</v>
       </c>
-      <c r="O49" s="8">
+      <c r="O49" s="7">
         <v>7.7399999999999997E-2</v>
       </c>
-      <c r="P49" s="9">
+      <c r="P49" s="8">
         <v>-1.48</v>
       </c>
     </row>
@@ -2433,13 +2483,13 @@
       <c r="M50" s="5">
         <v>0.94</v>
       </c>
-      <c r="N50" s="8">
+      <c r="N50" s="7">
         <v>7.3300000000000004E-2</v>
       </c>
-      <c r="O50" s="8">
+      <c r="O50" s="7">
         <v>7.2300000000000003E-2</v>
       </c>
-      <c r="P50" s="9">
+      <c r="P50" s="8">
         <v>-1.38</v>
       </c>
     </row>
@@ -2474,13 +2524,13 @@
       <c r="M51" s="5">
         <v>1</v>
       </c>
-      <c r="N51" s="8">
+      <c r="N51" s="7">
         <v>7.6600000000000001E-2</v>
       </c>
-      <c r="O51" s="8">
+      <c r="O51" s="7">
         <v>7.5600000000000001E-2</v>
       </c>
-      <c r="P51" s="9">
+      <c r="P51" s="8">
         <v>-1.31</v>
       </c>
     </row>
@@ -2515,13 +2565,13 @@
       <c r="M52" s="5">
         <v>1.03</v>
       </c>
-      <c r="N52" s="8">
+      <c r="N52" s="7">
         <v>7.2700000000000001E-2</v>
       </c>
-      <c r="O52" s="8">
+      <c r="O52" s="7">
         <v>7.1800000000000003E-2</v>
       </c>
-      <c r="P52" s="9">
+      <c r="P52" s="8">
         <v>-1.26</v>
       </c>
     </row>
@@ -2556,13 +2606,13 @@
       <c r="M53" s="5">
         <v>1.07</v>
       </c>
-      <c r="N53" s="8">
+      <c r="N53" s="7">
         <v>6.8699999999999997E-2</v>
       </c>
-      <c r="O53" s="8">
+      <c r="O53" s="7">
         <v>6.7900000000000002E-2</v>
       </c>
-      <c r="P53" s="9">
+      <c r="P53" s="8">
         <v>-1.23</v>
       </c>
     </row>
@@ -2597,13 +2647,13 @@
       <c r="M54" s="5">
         <v>1.08</v>
       </c>
-      <c r="N54" s="8">
+      <c r="N54" s="7">
         <v>6.6199999999999995E-2</v>
       </c>
-      <c r="O54" s="8">
+      <c r="O54" s="7">
         <v>6.54E-2</v>
       </c>
-      <c r="P54" s="9">
+      <c r="P54" s="8">
         <v>-1.27</v>
       </c>
     </row>
@@ -2638,13 +2688,13 @@
       <c r="M55" s="5">
         <v>0.97</v>
       </c>
-      <c r="N55" s="8">
+      <c r="N55" s="7">
         <v>7.5300000000000006E-2</v>
       </c>
-      <c r="O55" s="8">
+      <c r="O55" s="7">
         <v>7.4300000000000005E-2</v>
       </c>
-      <c r="P55" s="9">
+      <c r="P55" s="8">
         <v>-1.34</v>
       </c>
     </row>
@@ -2679,13 +2729,13 @@
       <c r="M56" s="5">
         <v>1.01</v>
       </c>
-      <c r="N56" s="8">
+      <c r="N56" s="7">
         <v>8.2199999999999995E-2</v>
       </c>
-      <c r="O56" s="8">
+      <c r="O56" s="7">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="P56" s="9">
+      <c r="P56" s="8">
         <v>-1.43</v>
       </c>
     </row>
@@ -2720,13 +2770,13 @@
       <c r="M57" s="5">
         <v>0.9</v>
       </c>
-      <c r="N57" s="8">
+      <c r="N57" s="7">
         <v>8.2299999999999998E-2</v>
       </c>
-      <c r="O57" s="8">
+      <c r="O57" s="7">
         <v>8.1100000000000005E-2</v>
       </c>
-      <c r="P57" s="9">
+      <c r="P57" s="8">
         <v>-1.49</v>
       </c>
     </row>
@@ -2761,13 +2811,13 @@
       <c r="M58" s="5">
         <v>0.84</v>
       </c>
-      <c r="N58" s="8">
+      <c r="N58" s="7">
         <v>7.1300000000000002E-2</v>
       </c>
-      <c r="O58" s="8">
+      <c r="O58" s="7">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="P58" s="9">
+      <c r="P58" s="8">
         <v>-1.4</v>
       </c>
     </row>
@@ -2802,13 +2852,13 @@
       <c r="M59" s="5">
         <v>0.66</v>
       </c>
-      <c r="N59" s="8">
+      <c r="N59" s="7">
         <v>7.0400000000000004E-2</v>
       </c>
-      <c r="O59" s="8">
+      <c r="O59" s="7">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="P59" s="9">
+      <c r="P59" s="8">
         <v>-1.27</v>
       </c>
     </row>
@@ -2843,13 +2893,13 @@
       <c r="M60" s="5">
         <v>0.61</v>
       </c>
-      <c r="N60" s="8">
+      <c r="N60" s="7">
         <v>6.0299999999999999E-2</v>
       </c>
-      <c r="O60" s="8">
+      <c r="O60" s="7">
         <v>5.8700000000000002E-2</v>
       </c>
-      <c r="P60" s="9">
+      <c r="P60" s="8">
         <v>-2.7</v>
       </c>
     </row>
@@ -2884,13 +2934,13 @@
       <c r="M61" s="5">
         <v>0.4</v>
       </c>
-      <c r="N61" s="8">
+      <c r="N61" s="7">
         <v>6.7699999999999996E-2</v>
       </c>
-      <c r="O61" s="8">
+      <c r="O61" s="7">
         <v>6.5500000000000003E-2</v>
       </c>
-      <c r="P61" s="9">
+      <c r="P61" s="8">
         <v>-3.37</v>
       </c>
     </row>
@@ -2925,13 +2975,13 @@
       <c r="M62" s="5">
         <v>0.34</v>
       </c>
-      <c r="N62" s="8">
+      <c r="N62" s="7">
         <v>6.6500000000000004E-2</v>
       </c>
-      <c r="O62" s="8">
+      <c r="O62" s="7">
         <v>6.4299999999999996E-2</v>
       </c>
-      <c r="P62" s="9">
+      <c r="P62" s="8">
         <v>-3.38</v>
       </c>
     </row>
@@ -2966,13 +3016,13 @@
       <c r="M63" s="5">
         <v>1.9</v>
       </c>
-      <c r="N63" s="8">
+      <c r="N63" s="7">
         <v>6.1199999999999997E-2</v>
       </c>
-      <c r="O63" s="8">
+      <c r="O63" s="7">
         <v>5.8500000000000003E-2</v>
       </c>
-      <c r="P63" s="9">
+      <c r="P63" s="8">
         <v>-4.6500000000000004</v>
       </c>
     </row>
@@ -3007,13 +3057,13 @@
       <c r="M64" s="5">
         <v>2.36</v>
       </c>
-      <c r="N64" s="8">
+      <c r="N64" s="7">
         <v>5.5100000000000003E-2</v>
       </c>
-      <c r="O64" s="8">
+      <c r="O64" s="7">
         <v>5.1799999999999999E-2</v>
       </c>
-      <c r="P64" s="9">
+      <c r="P64" s="8">
         <v>-6.35</v>
       </c>
     </row>
@@ -3048,13 +3098,13 @@
       <c r="M65" s="5">
         <v>3.43</v>
       </c>
-      <c r="N65" s="8">
+      <c r="N65" s="7">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="O65" s="8">
+      <c r="O65" s="7">
         <v>4.7300000000000002E-2</v>
       </c>
-      <c r="P65" s="9">
+      <c r="P65" s="8">
         <v>-8.5</v>
       </c>
     </row>
@@ -3089,13 +3139,13 @@
       <c r="M66" s="5">
         <v>0.74</v>
       </c>
-      <c r="N66" s="8">
+      <c r="N66" s="7">
         <v>5.6500000000000002E-2</v>
       </c>
-      <c r="O66" s="8">
+      <c r="O66" s="7">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="P66" s="9">
+      <c r="P66" s="8">
         <v>-8.5</v>
       </c>
     </row>
@@ -3130,55 +3180,131 @@
       <c r="M67" s="5">
         <v>0.42</v>
       </c>
-      <c r="N67" s="8">
+      <c r="N67" s="7">
         <v>5.0700000000000002E-2</v>
       </c>
-      <c r="O67" s="8">
+      <c r="O67" s="7">
         <v>4.4699999999999997E-2</v>
       </c>
-      <c r="P67" s="9">
+      <c r="P67" s="8">
         <v>-13.38</v>
       </c>
     </row>
-    <row r="68" spans="4:16" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:16" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D68" s="6">
         <v>2024</v>
       </c>
-      <c r="E68" s="10" t="s">
+      <c r="E68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F68" s="10" t="s">
+      <c r="F68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G68" s="11" t="s">
+      <c r="G68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I68" s="10">
+      <c r="I68" s="9">
         <v>191</v>
       </c>
-      <c r="J68" s="11" t="s">
+      <c r="J68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K68" s="10" t="s">
+      <c r="K68" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L68" s="10">
+      <c r="L68" s="9">
         <v>705</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N68" s="13" t="s">
+      <c r="N68" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="12">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="P68" s="12" t="s">
+      <c r="P68" s="11" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H72" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="H73" s="2">
+        <v>299.89999999999998</v>
+      </c>
+      <c r="I73" s="2">
+        <v>302.7</v>
+      </c>
+    </row>
+    <row r="74" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H74" s="13">
+        <f>H67/H73</f>
+        <v>0.52350783594531514</v>
+      </c>
+      <c r="I74" s="13">
+        <f>I67/I73</f>
+        <v>0.53187974892632972</v>
+      </c>
+    </row>
+    <row r="75" spans="4:16" x14ac:dyDescent="0.2">
+      <c r="G75" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H75" s="2">
+        <f>H77/H73</f>
+        <v>0.61687229076358796</v>
+      </c>
+      <c r="I75" s="2">
+        <f>I77/I73</f>
+        <v>0.63098777667657746</v>
+      </c>
+    </row>
+    <row r="77" spans="4:16" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="G77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="16">
+        <v>185</v>
+      </c>
+      <c r="I77" s="2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="78" spans="4:16" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="G78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H78" s="14">
+        <v>209500</v>
+      </c>
+      <c r="I78" s="15">
+        <v>219714</v>
+      </c>
+    </row>
+    <row r="79" spans="4:16" ht="13.8" x14ac:dyDescent="0.2">
+      <c r="G79" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I79" s="18">
+        <v>241</v>
+      </c>
+      <c r="J79" s="2">
+        <f>I79/I73</f>
+        <v>0.7961678229269904</v>
       </c>
     </row>
   </sheetData>
